--- a/학습목표.xlsx
+++ b/학습목표.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27204"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/git/Java85/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/OneDrive/강의자료/강의관리/비트캠프/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="284">
   <si>
     <t>능력단위</t>
   </si>
@@ -765,9 +765,6 @@
     <t>비트 논리 연산자를 사용하고 활용할 수 있다.</t>
   </si>
   <si>
-    <t>비트 연산자 &amp;, |, ^, ~를 사용하고 활용하는 방법</t>
-  </si>
-  <si>
     <t>java02/step02</t>
   </si>
   <si>
@@ -775,6 +772,114 @@
   </si>
   <si>
     <t>java02/step03</t>
+  </si>
+  <si>
+    <t>12강</t>
+  </si>
+  <si>
+    <t>비트 이동 연산자를 사용하고 활용할 수 있다.</t>
+  </si>
+  <si>
+    <t>비트 이동 연산자 &lt;&lt;, &gt;&gt;, &gt;&gt;&gt;를 사용하는 방법</t>
+  </si>
+  <si>
+    <t>비트 논리 연산자 &amp;, |, ^, ~를 사용하는 방법</t>
+  </si>
+  <si>
+    <t>직렬화와 역직렬화의 개념</t>
+  </si>
+  <si>
+    <t>직렬화와 역직렬화의 개념을 이해한다.</t>
+  </si>
+  <si>
+    <t>비트 이동 연산자를 이용하여 원시타입과 바이트 배열 간의 데이터 교환 방법</t>
+  </si>
+  <si>
+    <t>do ~ while 반복문을 사용할 수 있고, while 문과의 차이점을 이해한다.</t>
+  </si>
+  <si>
+    <t>do ~ while 반복문 사용법</t>
+  </si>
+  <si>
+    <t>확장 for 반복문을 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>for (변수 : Iterator 또는 배열) 반복문 사용법</t>
+  </si>
+  <si>
+    <t>사용자 정의 데이터 타입을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>사용자 정의 데이터 타입을 위한 연산자를 정의할 수 있다.</t>
+  </si>
+  <si>
+    <t>연산자와 메서드의 관계를 이해한다.</t>
+  </si>
+  <si>
+    <t>클래스와 연산자, 메서드 간의 관계</t>
+  </si>
+  <si>
+    <t>메서드 문법을 이용하여 연산자를 정의하고 사용하는 방법</t>
+  </si>
+  <si>
+    <t>리턴 타입과 파라미터를 활용한 메서드 정의 방법</t>
+  </si>
+  <si>
+    <t>클래스 문법을 이용하여 데이터 타입을 정의하고 메모리를 준비하는 방법</t>
+  </si>
+  <si>
+    <t>스태틱 메서드를 정의하고 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>static 메서드를 정의하고 사용하는 방법</t>
+  </si>
+  <si>
+    <t>클래스 문법을 이용하여 메서드를 관리하기 쉽게 분류할 수 있다.</t>
+  </si>
+  <si>
+    <t>클래스를 정의하고 클래스 블록 안에 메서드를 정의하는 방법</t>
+  </si>
+  <si>
+    <t>클래스에 소속된 메서드를 사용하는 방법</t>
+  </si>
+  <si>
+    <t>스태틱 변수와 로컬 변수, 인스턴스 변수의 차이점을 이해한다.</t>
+  </si>
+  <si>
+    <t>call by value와 call by reference의 동작원리를 이해한다.</t>
+  </si>
+  <si>
+    <t>메서드를 사용하는 이유와 이점을 이해한다.</t>
+  </si>
+  <si>
+    <t>리턴 타입과 파라미터를 활용하여 다양한 메서드를 정의할 수 있다.</t>
+  </si>
+  <si>
+    <t>메서드의 개념과 용도</t>
+  </si>
+  <si>
+    <t>스태틱 변수의 용도를 이해하고 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>스태틱 변수의 용도. 스태틱 변수를 선언하고 사용하는 방법</t>
+  </si>
+  <si>
+    <t>스태틱 변수와 로컬 변수, 인스턴스 변수의 차이점</t>
+  </si>
+  <si>
+    <t>java02/step04</t>
+  </si>
+  <si>
+    <t>java02/step05</t>
+  </si>
+  <si>
+    <t>13강</t>
+  </si>
+  <si>
+    <t>배열 메모리를 주고 받는 방법</t>
+  </si>
+  <si>
+    <t>아규먼트와 파라미터의 관계.</t>
   </si>
 </sst>
 </file>
@@ -2793,10 +2898,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3538,111 +3643,297 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>229</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>230</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>231</v>
-      </c>
-      <c r="D86" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>232</v>
       </c>
       <c r="D87" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>247</v>
-      </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>241</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>243</v>
       </c>
-      <c r="D93" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>242</v>
       </c>
-      <c r="D94" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+      <c r="D95" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>244</v>
       </c>
-      <c r="C95" t="s">
-        <v>245</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C96" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>248</v>
+      </c>
+      <c r="B98" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" t="s">
+        <v>265</v>
+      </c>
+      <c r="D103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" t="s">
+        <v>263</v>
+      </c>
+      <c r="D104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C113" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/학습목표.xlsx
+++ b/학습목표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31980" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="교육과정" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="302">
   <si>
     <t>능력단위</t>
   </si>
@@ -306,9 +306,6 @@
     <t>파일을 실행하는 프로그램의 용어. 예) Player, VM, Interpreter, Engine, Viewer, Reader 등</t>
   </si>
   <si>
-    <t>JRE, JDK, Java SE의 관계를 이해한다.</t>
-  </si>
-  <si>
     <t>.class 파일을 만드는 프로그램. JDK(Java Development Kit)</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>.class 파일을 만드는 방법.</t>
   </si>
   <si>
-    <t>자바 컴파일러와 JVM(바이트코드 인터프리터)의 역할을 이해한다.</t>
-  </si>
-  <si>
     <t>자바 소스 파일을 바이트코드로 만든 후 실행하기까지 과정.</t>
   </si>
   <si>
@@ -405,9 +399,6 @@
     <t>파일 시스템과 포맷의 관계</t>
   </si>
   <si>
-    <t>다양한 문자 집합의 규칙을 이해한다.</t>
-  </si>
-  <si>
     <t>ASCII, ISO-8859-1, EUC-KR, 조합형, MS949, Unicode, UTF-8 규칙</t>
   </si>
   <si>
@@ -429,15 +420,9 @@
     <t>여러 줄 주석, 한 줄 주석, Javadoc 주석, 애노테이션 주석</t>
   </si>
   <si>
-    <t>소스 파일의 클래스 블록과 .class 파일의 관계를 이해한다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">자바 소스 파일을 컴파일 한 후 생성된 .class을 확인한다. </t>
   </si>
   <si>
-    <t>클래스 블록 이름과 소스 파일의 이름의 관계를 이해한다.</t>
-  </si>
-  <si>
     <t>main() 명령어 블록을 이해한다.</t>
   </si>
   <si>
@@ -741,15 +726,9 @@
     <t>서로 다른 타입의 데이터가 연산하는 원리를 이해한다.</t>
   </si>
   <si>
-    <t>배열 변수와 메모리의 관계를 이해한다.</t>
-  </si>
-  <si>
     <t>배열의 변수가 배열 메모리를 가리키는 원리</t>
   </si>
   <si>
-    <t>레퍼런스와 가비지에 대해 이해한다.</t>
-  </si>
-  <si>
     <t>가비지가 발생하는 경우를 살펴본다.</t>
   </si>
   <si>
@@ -843,15 +822,6 @@
     <t>클래스에 소속된 메서드를 사용하는 방법</t>
   </si>
   <si>
-    <t>스태틱 변수와 로컬 변수, 인스턴스 변수의 차이점을 이해한다.</t>
-  </si>
-  <si>
-    <t>call by value와 call by reference의 동작원리를 이해한다.</t>
-  </si>
-  <si>
-    <t>메서드를 사용하는 이유와 이점을 이해한다.</t>
-  </si>
-  <si>
     <t>리턴 타입과 파라미터를 활용하여 다양한 메서드를 정의할 수 있다.</t>
   </si>
   <si>
@@ -880,6 +850,90 @@
   </si>
   <si>
     <t>아규먼트와 파라미터의 관계.</t>
+  </si>
+  <si>
+    <t>스태틱 변수의 한계를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>스태틱 변수의 특징과 사용에서 한계점</t>
+  </si>
+  <si>
+    <t>인스턴스 변수를 선언하고 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>인스턴스 변수의 메모리를 준비하는 방법과 사용법</t>
+  </si>
+  <si>
+    <t>인스턴스 메서드를 정의하고 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>인스턴스 메서드를 정의하는 방법과 사용법</t>
+  </si>
+  <si>
+    <t>인스턴스 메서드의 내장 변수 this의 용도를 이해하고 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>인스턴스 메서드의 내장 변수 this 사용법</t>
+  </si>
+  <si>
+    <t>JRE, JDK, Java SE의 관계를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>자바 컴파일러와 JVM(바이트코드 인터프리터)의 역할을 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>다양한 문자 집합의 규칙을 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>소스 파일의 클래스 블록과 .class 파일의 관계를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>클래스 블록 이름과 소스 파일의 이름의 관계를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>배열 변수와 메모리의 관계를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>레퍼런스와 가비지에 대해 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>call by value와 call by reference의 동작원리를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>메서드를 사용하는 이유와 이점을 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>스태틱 변수와 로컬 변수, 인스턴스 변수의 차이점을 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>2단계, 클래스 문법을 사용하여 메서드를 분류하기</t>
+  </si>
+  <si>
+    <t>1단계, 스태틱 메서드를 사용하여 명령들을 재사용하기 좋게 기능 별로 묶어 놓기</t>
+  </si>
+  <si>
+    <t>3단계, 스태틱 변수를 사용하여 메서드들의 작업 결과를 저장할 공통 메모리 준비하기</t>
+  </si>
+  <si>
+    <t>4단계, 여러 개의 작업을 동시에 실행했을 때 스태틱 변수의 한계를 경험하기</t>
+  </si>
+  <si>
+    <t>5단계, 인스턴스 변수를 사용하여 메서드들의 작업 결과를 개별적으로 관리하기</t>
+  </si>
+  <si>
+    <t>6단계, 인스턴스 변수를 보다 쉽게 다룰 수 있는 인스턴스 메서드 사용하기</t>
+  </si>
+  <si>
+    <t>프로그래밍 과제</t>
+  </si>
+  <si>
+    <t>java02/src/step05/ex02/Test00.java 를 "프로그래밍 연습"에서 한 것 처럼 6단계로 작성하기</t>
+  </si>
+  <si>
+    <t>java02/step05/ex01</t>
+  </si>
+  <si>
+    <t>java02/step05/ex02</t>
   </si>
 </sst>
 </file>
@@ -2898,10 +2952,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2909,7 +2963,7 @@
     <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2923,7 +2977,7 @@
         <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2949,301 +3003,301 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3251,689 +3305,793 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" t="s">
         <v>203</v>
-      </c>
-      <c r="C73" t="s">
-        <v>207</v>
-      </c>
-      <c r="D73" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" t="s">
         <v>223</v>
-      </c>
-      <c r="D83" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" t="s">
         <v>238</v>
-      </c>
-      <c r="D92" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D93" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
         <v>244</v>
       </c>
-      <c r="C96" t="s">
-        <v>251</v>
-      </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D99" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C104" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C107" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" t="s">
         <v>270</v>
-      </c>
-      <c r="D112" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D113" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C114" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>271</v>
+      </c>
+      <c r="B116" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>276</v>
+      </c>
+      <c r="C117" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" t="s">
         <v>281</v>
+      </c>
+      <c r="D119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>294</v>
+      </c>
+      <c r="D122" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>296</v>
+      </c>
+      <c r="D124" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>297</v>
+      </c>
+      <c r="D125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>298</v>
+      </c>
+      <c r="C126" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/학습목표.xlsx
+++ b/학습목표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/OneDrive/강의자료/강의관리/비트캠프/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/git/Java85/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31980" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-27200" yWindow="460" windowWidth="27200" windowHeight="13800" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="교육과정" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="303">
   <si>
     <t>능력단위</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>java02/step05/ex02</t>
+  </si>
+  <si>
+    <t>14강</t>
   </si>
 </sst>
 </file>
@@ -2952,10 +2955,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4094,6 +4097,11 @@
         <v>301</v>
       </c>
     </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/학습목표.xlsx
+++ b/학습목표.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27200" yWindow="460" windowWidth="27200" windowHeight="13800" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32960" windowHeight="13800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="교육과정" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="322">
   <si>
     <t>능력단위</t>
   </si>
@@ -924,9 +924,6 @@
     <t>6단계, 인스턴스 변수를 보다 쉽게 다룰 수 있는 인스턴스 메서드 사용하기</t>
   </si>
   <si>
-    <t>프로그래밍 과제</t>
-  </si>
-  <si>
     <t>java02/src/step05/ex02/Test00.java 를 "프로그래밍 연습"에서 한 것 처럼 6단계로 작성하기</t>
   </si>
   <si>
@@ -937,6 +934,66 @@
   </si>
   <si>
     <t>14강</t>
+  </si>
+  <si>
+    <t>1단계: 자주 사용할 명령어를 별도의 블록으로 묶어 놓는다.</t>
+  </si>
+  <si>
+    <t>2단계: 클래스 문법을 사용하여 메서드를 분류한다.</t>
+  </si>
+  <si>
+    <t>프로그래밍 연습: OOP 구조</t>
+  </si>
+  <si>
+    <t>프로그래밍 과제: OOP 구조</t>
+  </si>
+  <si>
+    <t>3단계: 메서드가 공통으로 사용하는 데이터는 클래스 변수(static 변수)에 저장해두자!</t>
+  </si>
+  <si>
+    <t>3단계(계속): 스태틱 변수의 한계 경험</t>
+  </si>
+  <si>
+    <t>4단계: 메서드와 데이터 타입의 결합</t>
+  </si>
+  <si>
+    <t>5단계: 데이터 타입의 연사자로서 메서드를 정의하기</t>
+  </si>
+  <si>
+    <t>15강</t>
+  </si>
+  <si>
+    <t>클래스를 실행하는 절차를 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>클래스 실행 절차</t>
+  </si>
+  <si>
+    <t>JVM이 관리하는 세 개의 메모리 영역과 변수와의 관계를 이해한다.</t>
+  </si>
+  <si>
+    <t>스태틱 변수, 인스턴스 변수, 로컬 변수와 메모리 영역과의 관계</t>
+  </si>
+  <si>
+    <t>java02/step06</t>
+  </si>
+  <si>
+    <t>클래스가 로딩되는 과정을 설명할 수 있다.</t>
+  </si>
+  <si>
+    <t>클래스 로딩과 스태틱 변수, 스태틱 블록</t>
+  </si>
+  <si>
+    <t>프로그래밍 연습: 값 객체 정의</t>
+  </si>
+  <si>
+    <t>사용자 정의 데이터 타입 만들기: 게시물, 책, 자동차, 연락처, 주문, 사용자 정보</t>
+  </si>
+  <si>
+    <t>java02/step06/ex01</t>
+  </si>
+  <si>
+    <t>16강</t>
   </si>
 </sst>
 </file>
@@ -2955,10 +3012,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4037,13 +4094,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="C120" t="s">
         <v>293</v>
       </c>
       <c r="D120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4051,7 +4108,7 @@
         <v>292</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,7 +4116,7 @@
         <v>294</v>
       </c>
       <c r="D122" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,7 +4124,7 @@
         <v>295</v>
       </c>
       <c r="D123" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4075,7 +4132,7 @@
         <v>296</v>
       </c>
       <c r="D124" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4083,23 +4140,124 @@
         <v>297</v>
       </c>
       <c r="D125" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" t="s">
         <v>298</v>
       </c>
-      <c r="C126" t="s">
-        <v>299</v>
-      </c>
       <c r="D126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" t="s">
         <v>302</v>
+      </c>
+      <c r="D128" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>303</v>
+      </c>
+      <c r="D129" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>306</v>
+      </c>
+      <c r="D130" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>307</v>
+      </c>
+      <c r="D131" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>308</v>
+      </c>
+      <c r="D132" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134" t="s">
+        <v>312</v>
+      </c>
+      <c r="D134" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>313</v>
+      </c>
+      <c r="C135" t="s">
+        <v>314</v>
+      </c>
+      <c r="D135" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" t="s">
+        <v>316</v>
+      </c>
+      <c r="C137" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
+        <v>319</v>
+      </c>
+      <c r="D138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
